--- a/level-3/leetcode/phase-3-breadth-first-search-depth-first-search/leetcode-phase-3-breadth-first-search-depth-first-search.xlsx
+++ b/level-3/leetcode/phase-3-breadth-first-search-depth-first-search/leetcode-phase-3-breadth-first-search-depth-first-search.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D148910A-23C6-47E2-BB90-4D1CC039A204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CEA0E3-4ADE-4982-90F3-533EA8A8CAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bfs,dfs" sheetId="14" r:id="rId1"/>
+    <sheet name="bfs-dfs" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/level-3/leetcode/phase-3-breadth-first-search-depth-first-search/leetcode-phase-3-breadth-first-search-depth-first-search.xlsx
+++ b/level-3/leetcode/phase-3-breadth-first-search-depth-first-search/leetcode-phase-3-breadth-first-search-depth-first-search.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CEA0E3-4ADE-4982-90F3-533EA8A8CAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F001B-FC81-4E59-9523-4487A10FFD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,183 +786,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1391,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>COUNTA(J4:J961)</f>
+        <f>COUNTA(J4:J841)</f>
         <v>161</v>
       </c>
     </row>
@@ -4736,131 +4560,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J86:J88 J90:J93">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94">
-    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J86:J94">
-    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I86:I88 I90:I93">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I86:I94">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72:J75 I76:J78">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I75">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
